--- a/performance/template.xlsx
+++ b/performance/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emrey\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2407B811-4263-4187-B6DE-FA04EBD8DC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94B0880-60F4-458F-85EC-69F36533B834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
   <si>
     <t>indicator_name</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>sphere_name</t>
+  </si>
+  <si>
+    <t>text</t>
   </si>
 </sst>
 </file>
@@ -467,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE96DFC-4159-4B4D-948A-91D978F77B5D}">
   <dimension ref="A1:AI29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AJ1" sqref="AJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,6 +620,113 @@
         <v>34</v>
       </c>
     </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V2" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" t="s">
+        <v>35</v>
+      </c>
+      <c r="X2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
     </row>
